--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_DeepAR_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.5283370022015739</v>
+        <v>0.452571110594402</v>
       </c>
       <c r="D2">
-        <v>0.5973352775553962</v>
+        <v>0.6552889247863019</v>
       </c>
       <c r="E2">
         <v>3.499243415704393</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1724750218269471</v>
+        <v>-0.1316788246857113</v>
       </c>
       <c r="D3">
-        <v>0.8630848838707827</v>
+        <v>0.8964351649087434</v>
       </c>
       <c r="E3">
         <v>3.499243415704393</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.501471639139324</v>
+        <v>-1.305017093907319</v>
       </c>
       <c r="D4">
-        <v>0.1334216471529139</v>
+        <v>0.2053726424877964</v>
       </c>
       <c r="E4">
         <v>3.499243415704393</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.3413624550532285</v>
+        <v>-0.2868839979017052</v>
       </c>
       <c r="D5">
-        <v>0.7328734504631131</v>
+        <v>0.7768857158919804</v>
       </c>
       <c r="E5">
         <v>3.499243415704393</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.851531371902383</v>
+        <v>-0.7041369195877211</v>
       </c>
       <c r="D6">
-        <v>0.3945956761429039</v>
+        <v>0.4887344825019164</v>
       </c>
       <c r="E6">
         <v>3.141501599903346</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.707284887870276</v>
+        <v>-1.530976341307013</v>
       </c>
       <c r="D7">
-        <v>0.08795399540711824</v>
+        <v>0.1400290789488416</v>
       </c>
       <c r="E7">
         <v>3.141501599903346</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.9222479133178587</v>
+        <v>-0.7221292309079389</v>
       </c>
       <c r="D8">
-        <v>0.3565317780634176</v>
+        <v>0.4778212511897366</v>
       </c>
       <c r="E8">
         <v>3.141501599903346</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-1.180127748370713</v>
+        <v>-1.341311078092691</v>
       </c>
       <c r="D9">
-        <v>0.2381165789925852</v>
+        <v>0.1935032232562928</v>
       </c>
       <c r="E9">
         <v>3.637017550708376</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.2205779774601241</v>
+        <v>-0.2014115297430123</v>
       </c>
       <c r="D10">
-        <v>0.8254478680854049</v>
+        <v>0.8422274323289975</v>
       </c>
       <c r="E10">
         <v>3.637017550708376</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.8520303432444848</v>
+        <v>1.23918500581923</v>
       </c>
       <c r="D11">
-        <v>0.3943187625722759</v>
+        <v>0.2283347970114582</v>
       </c>
       <c r="E11">
         <v>4.814253399763084</v>
